--- a/app/data_samples/ExcelParsingSample.xlsx
+++ b/app/data_samples/ExcelParsingSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wilogroup-my.sharepoint.com/personal/flavien_campeaux_wilo_com/Documents/Desktop/py/qrCodeGen/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wilogroup-my.sharepoint.com/personal/flavien_campeaux_wilo_com/Documents/Desktop/py/qrCodeGen/app/data_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{F6246A19-FA41-4AFA-B85E-91F792B89EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A09B9F14-8214-4906-8C38-917B5E5136F3}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{F6246A19-FA41-4AFA-B85E-91F792B89EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A370769-B10F-4019-AD1D-6F3038B8BE55}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="4065" windowWidth="28800" windowHeight="15345" xr2:uid="{FDA83857-D817-4F31-9D47-1B306F6F0856}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FDA83857-D817-4F31-9D47-1B306F6F0856}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="286">
   <si>
     <t>Col 3</t>
   </si>
@@ -218,13 +218,682 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>132115aa</t>
-  </si>
-  <si>
-    <t>1-333733bb</t>
-  </si>
-  <si>
-    <t>136073aa</t>
+    <t>39816 D</t>
+  </si>
+  <si>
+    <t>MANCHON PVC PRESSION D140</t>
+  </si>
+  <si>
+    <t>39817 E</t>
+  </si>
+  <si>
+    <t>MANCHON PVC PRESSION D160</t>
+  </si>
+  <si>
+    <t>398183-1</t>
+  </si>
+  <si>
+    <t>S4W SMALL "PR" ETH/GSM AVEC 8DI/2AI/2DO</t>
+  </si>
+  <si>
+    <t>39837 B</t>
+  </si>
+  <si>
+    <t>BOUCHON PVC PRESSION FEMELLE A COLLER D25</t>
+  </si>
+  <si>
+    <t>39838 C</t>
+  </si>
+  <si>
+    <t>BOUCHON PVC PRESSION FEMELLE A COLLER D32</t>
+  </si>
+  <si>
+    <t>39843 H</t>
+  </si>
+  <si>
+    <t>BOUCHON PVC PRESSION FEMELLE A COLLER D90</t>
+  </si>
+  <si>
+    <t>39844 J</t>
+  </si>
+  <si>
+    <t>BOUCHON PVC PRESSION FEMELLE A COLLER D110</t>
+  </si>
+  <si>
+    <t>4000 12x17</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 12x17</t>
+  </si>
+  <si>
+    <t>4000 15x21</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 15x21</t>
+  </si>
+  <si>
+    <t>4000 20x27</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 20x27</t>
+  </si>
+  <si>
+    <t>4000 26x34</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 26x34</t>
+  </si>
+  <si>
+    <t>4000 33x42</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 33x42</t>
+  </si>
+  <si>
+    <t>4000 40x49</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 40x49</t>
+  </si>
+  <si>
+    <t>4000 50x60</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 50x60</t>
+  </si>
+  <si>
+    <t>4000 66x76</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 66x76</t>
+  </si>
+  <si>
+    <t>4000 80x90</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique FF 80x90</t>
+  </si>
+  <si>
+    <t>400051</t>
+  </si>
+  <si>
+    <t>ENV. + SOCLE pour BSR/CSR.</t>
+  </si>
+  <si>
+    <t>40009 N</t>
+  </si>
+  <si>
+    <t>COLLET STRIE 40MM</t>
+  </si>
+  <si>
+    <t>4001 12x17</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MF 12x17</t>
+  </si>
+  <si>
+    <t>4001 15x21</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MF 15x21</t>
+  </si>
+  <si>
+    <t>4001 20x27</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MF 20x27</t>
+  </si>
+  <si>
+    <t>4001 26x34</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MF 26x34</t>
+  </si>
+  <si>
+    <t>4001 33x42</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MF 33x42</t>
+  </si>
+  <si>
+    <t>4001 40x49</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MF 40x49</t>
+  </si>
+  <si>
+    <t>4001 50x60</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MF 50x60</t>
+  </si>
+  <si>
+    <t>4001 8x13</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MF 8x13</t>
+  </si>
+  <si>
+    <t>40010 P</t>
+  </si>
+  <si>
+    <t>COLLET STRIE 50MM</t>
+  </si>
+  <si>
+    <t>40011 Q</t>
+  </si>
+  <si>
+    <t>COLLET STRIE 63MM</t>
+  </si>
+  <si>
+    <t>40012 R</t>
+  </si>
+  <si>
+    <t>COLLET STRIE 75MM</t>
+  </si>
+  <si>
+    <t>40013 S</t>
+  </si>
+  <si>
+    <t>COLLET STRIE 90MM</t>
+  </si>
+  <si>
+    <t>40014 T</t>
+  </si>
+  <si>
+    <t>COLLET STRIE PVC DN 110MM</t>
+  </si>
+  <si>
+    <t>40015 U</t>
+  </si>
+  <si>
+    <t>COLLET STRIE PVC PRESSION D125</t>
+  </si>
+  <si>
+    <t>40016 W</t>
+  </si>
+  <si>
+    <t>Collet Strie Diam 140</t>
+  </si>
+  <si>
+    <t>40017 X</t>
+  </si>
+  <si>
+    <t>Collet strié PVC pression DN160</t>
+  </si>
+  <si>
+    <t>4002 33x42</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MM 33x42</t>
+  </si>
+  <si>
+    <t>4002 40x49</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique MM 40x49</t>
+  </si>
+  <si>
+    <t>40029 K</t>
+  </si>
+  <si>
+    <t>JOINT PLAT EPDM pour COLLET STRIE D40</t>
+  </si>
+  <si>
+    <t>40031 M</t>
+  </si>
+  <si>
+    <t>JOINT PLAT EPDM pour COLLET STRIE D63</t>
+  </si>
+  <si>
+    <t>40032 N</t>
+  </si>
+  <si>
+    <t>JOINT PLAT EPDM pour COLLET STRIE D75</t>
+  </si>
+  <si>
+    <t>40033 P</t>
+  </si>
+  <si>
+    <t>JOINT PLAT EPDM pour COLLET STRIE D90</t>
+  </si>
+  <si>
+    <t>40034 Q</t>
+  </si>
+  <si>
+    <t>JOINT PLAT EPDM pour COLLET STRIE D110</t>
+  </si>
+  <si>
+    <t>40035 R</t>
+  </si>
+  <si>
+    <t>JOINT PLAT EPDM pour COLLET STRIE D125</t>
+  </si>
+  <si>
+    <t>4004405</t>
+  </si>
+  <si>
+    <t>CABLE-H05-RRF-2X0,75MM2</t>
+  </si>
+  <si>
+    <t>400450</t>
+  </si>
+  <si>
+    <t>SOCLE POLY H.500P/COF.600X400</t>
+  </si>
+  <si>
+    <t>4015655</t>
+  </si>
+  <si>
+    <t>WILO CONTROL - Wilo Kit Press 6</t>
+  </si>
+  <si>
+    <t>402285-1</t>
+  </si>
+  <si>
+    <t>AUTOMATE KLARO CONTROL.M</t>
+  </si>
+  <si>
+    <t>402285-2</t>
+  </si>
+  <si>
+    <t>JEU DE CABLES KLARO CONTROL.M 230V</t>
+  </si>
+  <si>
+    <t>4027301</t>
+  </si>
+  <si>
+    <t>KIT ETANC-MVI-PN16 ou PN25  EPDM</t>
+  </si>
+  <si>
+    <t>4027334</t>
+  </si>
+  <si>
+    <t>Kit douille cannelée PVC 2"-Tuyau ø60</t>
+  </si>
+  <si>
+    <t>4027335</t>
+  </si>
+  <si>
+    <t>Kit douille cannelée PVC 1"½-Tuyau ø40mm</t>
+  </si>
+  <si>
+    <t>4027347</t>
+  </si>
+  <si>
+    <t>KIT ETANCHEITE MHI EPDM</t>
+  </si>
+  <si>
+    <t>4029677</t>
+  </si>
+  <si>
+    <t>Jonction étanche thermo-rétractable type 0</t>
+  </si>
+  <si>
+    <t>4030114</t>
+  </si>
+  <si>
+    <t>JOINT TORIQUE ID.66,27X3,53 EPDM</t>
+  </si>
+  <si>
+    <t>40329 L</t>
+  </si>
+  <si>
+    <t>BRIDE LIBRE PVC 40/32 MM</t>
+  </si>
+  <si>
+    <t>40330 M</t>
+  </si>
+  <si>
+    <t>BRIDE LIBRE PVC 50/40 MM</t>
+  </si>
+  <si>
+    <t>40331 N</t>
+  </si>
+  <si>
+    <t>BRIDE LIBRE PVC 63/50 MM</t>
+  </si>
+  <si>
+    <t>40332 P</t>
+  </si>
+  <si>
+    <t>BRIDE LIBRE PVC 75/65 MM</t>
+  </si>
+  <si>
+    <t>40333 Q</t>
+  </si>
+  <si>
+    <t>BRIDE LIBRE PVC 90/80 MM</t>
+  </si>
+  <si>
+    <t>4033320</t>
+  </si>
+  <si>
+    <t>CARTE-BASE-REL-2PPES</t>
+  </si>
+  <si>
+    <t>40334 R</t>
+  </si>
+  <si>
+    <t>BRIDE PVC RONDE DN100 POUR COLLET D110</t>
+  </si>
+  <si>
+    <t>40337 U</t>
+  </si>
+  <si>
+    <t>Bride PVC pression DN 160</t>
+  </si>
+  <si>
+    <t>40342 A</t>
+  </si>
+  <si>
+    <t>Bride PVC libre D125</t>
+  </si>
+  <si>
+    <t>4037020</t>
+  </si>
+  <si>
+    <t>SUPPORT-BARRE-GUIDAGE-"SIR"</t>
+  </si>
+  <si>
+    <t>4040 15x21</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique à purge 15x21</t>
+  </si>
+  <si>
+    <t>4040 20x27</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique à purge 20x27</t>
+  </si>
+  <si>
+    <t>4040 26x34</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique à purge 26x34</t>
+  </si>
+  <si>
+    <t>4040 33x42</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique à purge 33x42</t>
+  </si>
+  <si>
+    <t>4040 40x49</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique à purge 40x49</t>
+  </si>
+  <si>
+    <t>4040 50x60</t>
+  </si>
+  <si>
+    <t>Vanne à boisseau sphérique à purge 50x60</t>
+  </si>
+  <si>
+    <t>4043156</t>
+  </si>
+  <si>
+    <t>KIT ETANCHEITE MVI8" O/E</t>
+  </si>
+  <si>
+    <t>4047994</t>
+  </si>
+  <si>
+    <t>JOINT-ETANCHEITE-SUPPORT/PIED-ASSIS-DN65</t>
+  </si>
+  <si>
+    <t>4048064</t>
+  </si>
+  <si>
+    <t>KIT CAPTEUR PRESSION 10BAR INOX</t>
+  </si>
+  <si>
+    <t>4048065</t>
+  </si>
+  <si>
+    <t>KIT CAPTEUR PRESSION 16B INOX</t>
+  </si>
+  <si>
+    <t>4048412</t>
+  </si>
+  <si>
+    <t>TM32/7</t>
+  </si>
+  <si>
+    <t>4049859</t>
+  </si>
+  <si>
+    <t>KIT ETANCHEITE POMPE MULTICARGO</t>
+  </si>
+  <si>
+    <t>C0320</t>
+  </si>
+  <si>
+    <t>C0321</t>
+  </si>
+  <si>
+    <t>C0322</t>
+  </si>
+  <si>
+    <t>C0323</t>
+  </si>
+  <si>
+    <t>C0324</t>
+  </si>
+  <si>
+    <t>C0325</t>
+  </si>
+  <si>
+    <t>C0326</t>
+  </si>
+  <si>
+    <t>C0327</t>
+  </si>
+  <si>
+    <t>C0328</t>
+  </si>
+  <si>
+    <t>C0329</t>
+  </si>
+  <si>
+    <t>C0330</t>
+  </si>
+  <si>
+    <t>C0331</t>
+  </si>
+  <si>
+    <t>C0332</t>
+  </si>
+  <si>
+    <t>C0333</t>
+  </si>
+  <si>
+    <t>C0334</t>
+  </si>
+  <si>
+    <t>C0335</t>
+  </si>
+  <si>
+    <t>C0336</t>
+  </si>
+  <si>
+    <t>C0337</t>
+  </si>
+  <si>
+    <t>C0338</t>
+  </si>
+  <si>
+    <t>C0339</t>
+  </si>
+  <si>
+    <t>C0340</t>
+  </si>
+  <si>
+    <t>C0341</t>
+  </si>
+  <si>
+    <t>C0342</t>
+  </si>
+  <si>
+    <t>C0343</t>
+  </si>
+  <si>
+    <t>C0344</t>
+  </si>
+  <si>
+    <t>C0345</t>
+  </si>
+  <si>
+    <t>C0346</t>
+  </si>
+  <si>
+    <t>C0347</t>
+  </si>
+  <si>
+    <t>C0348</t>
+  </si>
+  <si>
+    <t>C0349</t>
+  </si>
+  <si>
+    <t>C0350</t>
+  </si>
+  <si>
+    <t>C0351</t>
+  </si>
+  <si>
+    <t>C0352</t>
+  </si>
+  <si>
+    <t>C0353</t>
+  </si>
+  <si>
+    <t>C0354</t>
+  </si>
+  <si>
+    <t>C0355</t>
+  </si>
+  <si>
+    <t>C0356</t>
+  </si>
+  <si>
+    <t>C0357</t>
+  </si>
+  <si>
+    <t>C0358</t>
+  </si>
+  <si>
+    <t>C0359</t>
+  </si>
+  <si>
+    <t>C0360</t>
+  </si>
+  <si>
+    <t>C0361</t>
+  </si>
+  <si>
+    <t>C0362</t>
+  </si>
+  <si>
+    <t>C0363</t>
+  </si>
+  <si>
+    <t>C0364</t>
+  </si>
+  <si>
+    <t>C0365</t>
+  </si>
+  <si>
+    <t>C0366</t>
+  </si>
+  <si>
+    <t>C0367</t>
+  </si>
+  <si>
+    <t>C0368</t>
+  </si>
+  <si>
+    <t>C0369</t>
+  </si>
+  <si>
+    <t>C0370</t>
+  </si>
+  <si>
+    <t>C0371</t>
+  </si>
+  <si>
+    <t>C0372</t>
+  </si>
+  <si>
+    <t>C0373</t>
+  </si>
+  <si>
+    <t>C0374</t>
+  </si>
+  <si>
+    <t>C0375</t>
+  </si>
+  <si>
+    <t>C0376</t>
+  </si>
+  <si>
+    <t>C0377</t>
+  </si>
+  <si>
+    <t>C0378</t>
+  </si>
+  <si>
+    <t>C0379</t>
+  </si>
+  <si>
+    <t>C0380</t>
+  </si>
+  <si>
+    <t>C0381</t>
+  </si>
+  <si>
+    <t>C0382</t>
+  </si>
+  <si>
+    <t>C0383</t>
+  </si>
+  <si>
+    <t>C0384</t>
+  </si>
+  <si>
+    <t>C0385</t>
+  </si>
+  <si>
+    <t>C0386</t>
+  </si>
+  <si>
+    <t>C0387</t>
+  </si>
+  <si>
+    <t>C0388</t>
+  </si>
+  <si>
+    <t>C0389</t>
+  </si>
+  <si>
+    <t>C0390</t>
+  </si>
+  <si>
+    <t>C0391</t>
+  </si>
+  <si>
+    <t>C0392</t>
+  </si>
+  <si>
+    <t>C0393</t>
+  </si>
+  <si>
+    <t>C0394</t>
+  </si>
+  <si>
+    <t>C0395</t>
   </si>
 </sst>
 </file>
@@ -274,10 +943,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,8 +991,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99F49A80-C5BD-4FE6-B44A-EB1B24E7B66D}" name="Tableau1" displayName="Tableau1" ref="A1:C77" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C77" xr:uid="{99F49A80-C5BD-4FE6-B44A-EB1B24E7B66D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99F49A80-C5BD-4FE6-B44A-EB1B24E7B66D}" name="Tableau1" displayName="Tableau1" ref="A1:C96" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C96" xr:uid="{99F49A80-C5BD-4FE6-B44A-EB1B24E7B66D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C2CBBB3C-59CA-43D4-8C56-8E16C504E4A3}" name="Reference" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{644711BD-F1B5-4D90-923A-428AB36B2BA0}" name="Designation" dataDxfId="0"/>
@@ -649,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6814A7F5-E0B6-4BB0-AA31-257A5B6A5E04}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +1331,7 @@
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -672,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -683,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -694,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -709,7 +1379,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -724,7 +1394,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -739,7 +1409,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -754,7 +1424,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -769,7 +1439,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -784,7 +1454,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -799,7 +1469,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -814,7 +1484,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -829,7 +1499,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -844,7 +1514,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -859,7 +1529,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -873,8 +1543,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -888,8 +1560,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -903,8 +1577,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -918,8 +1594,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -933,8 +1611,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -948,640 +1628,991 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>212</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>213</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>214</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>215</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>216</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>217</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>218</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>219</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>220</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>221</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>222</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>224</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>225</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>226</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>227</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>228</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>229</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>21</v>
+        <v>230</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>23</v>
+        <v>231</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>233</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>234</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>31</v>
+        <v>235</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>35</v>
+        <v>237</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>238</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>239</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>41</v>
+        <v>240</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>241</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>243</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>49</v>
+        <v>244</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>51</v>
+        <v>245</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>246</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>17</v>
+        <v>247</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>19</v>
+        <v>248</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>21</v>
+        <v>249</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>23</v>
+        <v>250</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>25</v>
+        <v>251</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>27</v>
+        <v>252</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>253</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>31</v>
+        <v>254</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>33</v>
+        <v>255</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>35</v>
+        <v>256</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>37</v>
+        <v>257</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>39</v>
+        <v>258</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>259</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>43</v>
+        <v>260</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>45</v>
+        <v>261</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>262</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>263</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>264</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>265</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>266</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" t="s">
+        <v>268</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" t="s">
+        <v>269</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" t="s">
+        <v>271</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" t="s">
+        <v>272</v>
+      </c>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" t="s">
+        <v>273</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" t="s">
+        <v>274</v>
+      </c>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="s">
+        <v>276</v>
+      </c>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>278</v>
+      </c>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
